--- a/demo/tablas_excel/CR/revocando_uno_a_uno/50_credenciales_describe.xlsx
+++ b/demo/tablas_excel/CR/revocando_uno_a_uno/50_credenciales_describe.xlsx
@@ -525,7 +525,7 @@
         <v>0.26</v>
       </c>
       <c r="F3" t="n">
-        <v>152.2734782608696</v>
+        <v>3.045469565217391</v>
       </c>
       <c r="G3" t="n">
         <v>201.1621739130435</v>
@@ -556,7 +556,7 @@
         <v>0.01080123449734644</v>
       </c>
       <c r="F4" t="n">
-        <v>8.88442626580151</v>
+        <v>0.1776885253160302</v>
       </c>
       <c r="G4" t="n">
         <v>11.91939769050214</v>
@@ -587,7 +587,7 @@
         <v>0.24</v>
       </c>
       <c r="F5" t="n">
-        <v>147.95</v>
+        <v>2.959</v>
       </c>
       <c r="G5" t="n">
         <v>189.54</v>
@@ -618,7 +618,7 @@
         <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>147.99</v>
+        <v>2.9598</v>
       </c>
       <c r="G6" t="n">
         <v>192.31</v>
@@ -649,7 +649,7 @@
         <v>0.26</v>
       </c>
       <c r="F7" t="n">
-        <v>148.93</v>
+        <v>2.9786</v>
       </c>
       <c r="G7" t="n">
         <v>198.4</v>
@@ -680,7 +680,7 @@
         <v>0.27</v>
       </c>
       <c r="F8" t="n">
-        <v>152.2734782608695</v>
+        <v>3.045469565217391</v>
       </c>
       <c r="G8" t="n">
         <v>205.5</v>
@@ -711,7 +711,7 @@
         <v>0.29</v>
       </c>
       <c r="F9" t="n">
-        <v>190.21</v>
+        <v>3.8042</v>
       </c>
       <c r="G9" t="n">
         <v>242.97</v>
